--- a/数据解析规范2.xlsx
+++ b/数据解析规范2.xlsx
@@ -4,17 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="22995" windowHeight="9855"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="22995" windowHeight="9855" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="数据解析规范2" sheetId="1" r:id="rId1"/>
+    <sheet name="STN1110" sheetId="1" r:id="rId1"/>
+    <sheet name="QL_100" sheetId="2" r:id="rId2"/>
+    <sheet name="初始化命令" sheetId="3" r:id="rId3"/>
+    <sheet name="GPS定位信息" sheetId="4" r:id="rId4"/>
+    <sheet name="HEADER" sheetId="5" r:id="rId5"/>
+    <sheet name="下行数据格式" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="420">
   <si>
     <t>命令</t>
   </si>
@@ -28,9 +33,6 @@
     <t>单位</t>
   </si>
   <si>
-    <t>算法</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -52,299 +54,1536 @@
     <t>`0103</t>
   </si>
   <si>
+    <t>`0105</t>
+  </si>
+  <si>
+    <t>`0106</t>
+  </si>
+  <si>
+    <t>`0107</t>
+  </si>
+  <si>
+    <t>`0108</t>
+  </si>
+  <si>
+    <t>`0109</t>
+  </si>
+  <si>
+    <t>`010A</t>
+  </si>
+  <si>
+    <t>`010B</t>
+  </si>
+  <si>
+    <t>`010D</t>
+  </si>
+  <si>
+    <t>`010F</t>
+  </si>
+  <si>
+    <t>`0110</t>
+  </si>
+  <si>
+    <t>`0111</t>
+  </si>
+  <si>
+    <t>`0112</t>
+  </si>
+  <si>
+    <t>`0113</t>
+  </si>
+  <si>
+    <t>`0114</t>
+  </si>
+  <si>
+    <t>`0115</t>
+  </si>
+  <si>
+    <t>`0116</t>
+  </si>
+  <si>
+    <t>`0117</t>
+  </si>
+  <si>
+    <t>`0118</t>
+  </si>
+  <si>
+    <t>`0119</t>
+  </si>
+  <si>
+    <t>`011A</t>
+  </si>
+  <si>
+    <t>`011B</t>
+  </si>
+  <si>
+    <t>`011C</t>
+  </si>
+  <si>
+    <t>`011D</t>
+  </si>
+  <si>
+    <t>`011E</t>
+  </si>
+  <si>
+    <t>`011F</t>
+  </si>
+  <si>
+    <t>`0120</t>
+  </si>
+  <si>
+    <t>`0121</t>
+  </si>
+  <si>
+    <t>`0122</t>
+  </si>
+  <si>
+    <t>`0123</t>
+  </si>
+  <si>
+    <t>`0124</t>
+  </si>
+  <si>
+    <t>`0125</t>
+  </si>
+  <si>
+    <t>`0126</t>
+  </si>
+  <si>
+    <t>`0127</t>
+  </si>
+  <si>
+    <t>`0128</t>
+  </si>
+  <si>
+    <t>`0129</t>
+  </si>
+  <si>
+    <t>`012A</t>
+  </si>
+  <si>
+    <t>`012B</t>
+  </si>
+  <si>
+    <t>`012C</t>
+  </si>
+  <si>
+    <t>`012D</t>
+  </si>
+  <si>
+    <t>`012E</t>
+  </si>
+  <si>
+    <t>`012F</t>
+  </si>
+  <si>
+    <t>`0130</t>
+  </si>
+  <si>
+    <t>`0131</t>
+  </si>
+  <si>
+    <t>`0132</t>
+  </si>
+  <si>
+    <t>`0133</t>
+  </si>
+  <si>
+    <t>`0134</t>
+  </si>
+  <si>
+    <t>`0135</t>
+  </si>
+  <si>
+    <t>`0136</t>
+  </si>
+  <si>
+    <t>`0137</t>
+  </si>
+  <si>
+    <t>`0138</t>
+  </si>
+  <si>
+    <t>`0139</t>
+  </si>
+  <si>
+    <t>`013A</t>
+  </si>
+  <si>
+    <t>`013B</t>
+  </si>
+  <si>
+    <t>`013C</t>
+  </si>
+  <si>
+    <t>`013D</t>
+  </si>
+  <si>
+    <t>`013E</t>
+  </si>
+  <si>
+    <t>`013F</t>
+  </si>
+  <si>
+    <t>`0140</t>
+  </si>
+  <si>
+    <t>`0141</t>
+  </si>
+  <si>
+    <t>`0142</t>
+  </si>
+  <si>
+    <t>`0143</t>
+  </si>
+  <si>
+    <t>`0144</t>
+  </si>
+  <si>
+    <t>`0145</t>
+  </si>
+  <si>
+    <t>`0146</t>
+  </si>
+  <si>
+    <t>`0147</t>
+  </si>
+  <si>
+    <t>`0148</t>
+  </si>
+  <si>
+    <t>`0149</t>
+  </si>
+  <si>
+    <t>`014A</t>
+  </si>
+  <si>
+    <t>`014B</t>
+  </si>
+  <si>
+    <t>`014C</t>
+  </si>
+  <si>
+    <t>`014D</t>
+  </si>
+  <si>
+    <t>`014E</t>
+  </si>
+  <si>
+    <t>`014F</t>
+  </si>
+  <si>
+    <t>`0150</t>
+  </si>
+  <si>
+    <t>`0151</t>
+  </si>
+  <si>
+    <t>`0153</t>
+  </si>
+  <si>
+    <t>`0154</t>
+  </si>
+  <si>
+    <t>`0155</t>
+  </si>
+  <si>
+    <t>`0156</t>
+  </si>
+  <si>
+    <t>`0157</t>
+  </si>
+  <si>
+    <t>`0158</t>
+  </si>
+  <si>
+    <t>`0159</t>
+  </si>
+  <si>
+    <t>`015A</t>
+  </si>
+  <si>
+    <t>`015B</t>
+  </si>
+  <si>
+    <t>`015C</t>
+  </si>
+  <si>
+    <t>`015D</t>
+  </si>
+  <si>
+    <t>`015E</t>
+  </si>
+  <si>
+    <t>`015F</t>
+  </si>
+  <si>
+    <t>命令序号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stn1110系列芯片命令</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力总成的冻结帧数据</t>
+  </si>
+  <si>
+    <t>(data &gt;&gt; 8) &amp;0xFF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法(int32_t data)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续两次获取</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>`0104</t>
-  </si>
-  <si>
-    <t>`0105</t>
-  </si>
-  <si>
-    <t>`0106</t>
-  </si>
-  <si>
-    <t>`0107</t>
-  </si>
-  <si>
-    <t>`0108</t>
-  </si>
-  <si>
-    <t>`0109</t>
-  </si>
-  <si>
-    <t>`010A</t>
-  </si>
-  <si>
-    <t>`010B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data*100/255</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机负荷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算举例</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4100BE1FB811</t>
+  </si>
+  <si>
+    <t>原始数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE1FB811</t>
+  </si>
+  <si>
+    <t>410100076100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>00076100</t>
+  </si>
+  <si>
+    <t>41030200</t>
+  </si>
+  <si>
+    <t>0200</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0x200 &gt;&gt; 8)&amp;0xFF = 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机冷却液温度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data-40</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>410580</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>410451</t>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上报数据(字符)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0x50 * 100/255)  = 31</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x80 - 40  = 88</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>短时燃油修正BANK1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>41067D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>41077B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(data &gt; 0xff) 
+   data&gt;&gt;8 ---&gt; 
+(data-128)*100/128</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4,设定为4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（0x7D -128）*100/128 &lt;0 error? </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长时燃油修正BANK1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>短时燃油修正 BANK2</t>
+  </si>
+  <si>
+    <t>长时燃油修正 BANK2</t>
+  </si>
+  <si>
+    <t>燃油导轨压力</t>
+  </si>
+  <si>
+    <t>未知默认4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kPa</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>℃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃油系统1,2状态 连续获取两次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data*3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>进气歧管绝对压力</t>
+  </si>
+  <si>
+    <t>发动机转速</t>
+  </si>
+  <si>
+    <t>410C0D48</t>
+  </si>
+  <si>
+    <t>0D48</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>`010C</t>
-  </si>
-  <si>
-    <t>`010D</t>
-  </si>
-  <si>
-    <t>`010F</t>
-  </si>
-  <si>
-    <t>`0110</t>
-  </si>
-  <si>
-    <t>`0111</t>
-  </si>
-  <si>
-    <t>`0112</t>
-  </si>
-  <si>
-    <t>`0113</t>
-  </si>
-  <si>
-    <t>`0114</t>
-  </si>
-  <si>
-    <t>`0115</t>
-  </si>
-  <si>
-    <t>`0116</t>
-  </si>
-  <si>
-    <t>`0117</t>
-  </si>
-  <si>
-    <t>`0118</t>
-  </si>
-  <si>
-    <t>`0119</t>
-  </si>
-  <si>
-    <t>`011A</t>
-  </si>
-  <si>
-    <t>`011B</t>
-  </si>
-  <si>
-    <t>`011C</t>
-  </si>
-  <si>
-    <t>`011D</t>
-  </si>
-  <si>
-    <t>`011E</t>
-  </si>
-  <si>
-    <t>`011F</t>
-  </si>
-  <si>
-    <t>`0120</t>
-  </si>
-  <si>
-    <t>`0121</t>
-  </si>
-  <si>
-    <t>`0122</t>
-  </si>
-  <si>
-    <t>`0123</t>
-  </si>
-  <si>
-    <t>`0124</t>
-  </si>
-  <si>
-    <t>`0125</t>
-  </si>
-  <si>
-    <t>`0126</t>
-  </si>
-  <si>
-    <t>`0127</t>
-  </si>
-  <si>
-    <t>`0128</t>
-  </si>
-  <si>
-    <t>`0129</t>
-  </si>
-  <si>
-    <t>`012A</t>
-  </si>
-  <si>
-    <t>`012B</t>
-  </si>
-  <si>
-    <t>`012C</t>
-  </si>
-  <si>
-    <t>`012D</t>
-  </si>
-  <si>
-    <t>`012E</t>
-  </si>
-  <si>
-    <t>`012F</t>
-  </si>
-  <si>
-    <t>`0130</t>
-  </si>
-  <si>
-    <t>`0131</t>
-  </si>
-  <si>
-    <t>`0132</t>
-  </si>
-  <si>
-    <t>`0133</t>
-  </si>
-  <si>
-    <t>`0134</t>
-  </si>
-  <si>
-    <t>`0135</t>
-  </si>
-  <si>
-    <t>`0136</t>
-  </si>
-  <si>
-    <t>`0137</t>
-  </si>
-  <si>
-    <t>`0138</t>
-  </si>
-  <si>
-    <t>`0139</t>
-  </si>
-  <si>
-    <t>`013A</t>
-  </si>
-  <si>
-    <t>`013B</t>
-  </si>
-  <si>
-    <t>`013C</t>
-  </si>
-  <si>
-    <t>`013D</t>
-  </si>
-  <si>
-    <t>`013E</t>
-  </si>
-  <si>
-    <t>`013F</t>
-  </si>
-  <si>
-    <t>`0140</t>
-  </si>
-  <si>
-    <t>`0141</t>
-  </si>
-  <si>
-    <t>`0142</t>
-  </si>
-  <si>
-    <t>`0143</t>
-  </si>
-  <si>
-    <t>`0144</t>
-  </si>
-  <si>
-    <t>`0145</t>
-  </si>
-  <si>
-    <t>`0146</t>
-  </si>
-  <si>
-    <t>`0147</t>
-  </si>
-  <si>
-    <t>`0148</t>
-  </si>
-  <si>
-    <t>`0149</t>
-  </si>
-  <si>
-    <t>`014A</t>
-  </si>
-  <si>
-    <t>`014B</t>
-  </si>
-  <si>
-    <t>`014C</t>
-  </si>
-  <si>
-    <t>`014D</t>
-  </si>
-  <si>
-    <t>`014E</t>
-  </si>
-  <si>
-    <t>`014F</t>
-  </si>
-  <si>
-    <t>`0150</t>
-  </si>
-  <si>
-    <t>`0151</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0D48 / 4 = 850</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data /4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>r/min</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>车速</t>
+  </si>
+  <si>
+    <t>km/h</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>410D00</t>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00 = 0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号气缸点火提前角</t>
+  </si>
+  <si>
+    <t>410E92</t>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(data-128)/2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>进气温度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>410F6E</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6E</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data -40</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6E - 40 = 70</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气流速</t>
+  </si>
+  <si>
+    <t>411001C9</t>
+  </si>
+  <si>
+    <t>data * 0.01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>01C9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01c9 *0.01 = 4.57</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0x92 -128)/2 = 9.00</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>节气门绝对位置</t>
+  </si>
+  <si>
+    <t>411109</t>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x09 *100/255 = 3.00</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>g/s</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>`010E</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次空气状态</t>
+  </si>
+  <si>
+    <t>data = data &amp; 0x0700; // mask bits 0, 1, and 2     
+if (data == 0x0100)
+   sprintf(buf, "upstream of 1st cat. conv.");
+else if (data == 0x0200)
+   sprintf(buf, "downstream of 1st cat. conv.");
+else if (data == 0x0400)
+   sprintf(buf, "atmosphere / off");
+else
+   sprintf(buf, "Not supported");</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>411303</t>
+  </si>
+  <si>
+    <t>氧含量传感器，多数无</t>
+  </si>
+  <si>
+    <t>氧传感器BANK1 -传感器 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧传感器BANK1 -传感器 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧传感器BANK1 -传感器 3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧传感器BANK1 -传感器 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4114107F</t>
+  </si>
+  <si>
+    <t>411526FF</t>
+  </si>
+  <si>
+    <t>(data&gt;&gt;8)*0.005</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>107F</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0x107F &gt;&gt; 8 ) *0.005 = 1.315</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>26FF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0x26FF &gt;&gt; 8 ) *0.005 = 3.115</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧传感器BANK2 -传感器 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧传感器BANK2 -传感器 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧传感器BANK2 -传感器 3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧传感器BANK2 -传感器 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBD模式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>411C06</t>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01 --&gt;"OBD-II (California ARB)");
+0x02 --&gt;"OBD (Federal EPA)");
+0x03 --&gt; "OBD and OBD-II");
+0x04 --&gt;"OBD-I");
+0x05 --&gt;"Not OBD compliant");
+0x06 --&gt;"EOBD (Europe)");
+0x07 --&gt;"EOBD and OBD-II");
+0x08 -&gt;"EOBD and OBD");
+0x09 -"EOBD, OBD and OBD-II");
+0x0A -&gt;"JOBD (Japan)");
+0x0B --&gt;"JOBD and OBD-II");
+0x0C --&gt;"JOBD and EOBD");
+0x0D --&gt;"JOBD, EOBD, and OBD-II");
+default:--&gt;Unknown: 0x%02X", data);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOBD (Europe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氧含量传感器2，多数无 </t>
+  </si>
+  <si>
+    <t>动力输出状态</t>
+  </si>
+  <si>
+    <t>if ((data &amp; 0x01) == 0x01)
+  sprintf(buf, "active");
+else
+   sprintf(buf, "not active");</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力运行时间</t>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID 0x21-0x3F命令支持状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>412080000000</t>
+  </si>
+  <si>
+    <t>41210000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIL警告灯点亮后的行驶距离</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data （%i输出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃油导轨压力（相对于歧管真空压力）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data*0.079</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃油导轨压力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 1, Bank 1 (wide range)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 2, Bank 1 (wide range)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 3, Bank 1 (wide range)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 4, Bank 1 (wide range)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 2, Bank 2 (wide range)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 3, Bank 2 (wide range)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 4, Bank 2 (wide range)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 1, Bank 2 (wide range)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>float eq_ratio, o2_voltage; // equivalence ratio and sensor voltage
+eq_ratio = (float)(data &gt;&gt; 16)*0.0000305;// data bytes A,B   o2_voltage = (float)(data &amp; 0xFFFF)*0.000122; // data bytes C,D  sprintf(buf, "%.3f V, Eq. ratio: %.3f", o2_voltage, eq_ratio);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令EGR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGR错误</t>
+  </si>
+  <si>
+    <t>sprintf(buf, (data == 128) ? "0.0%%" : "%+.1f%%", (float)(data-128)/255*100);</t>
+  </si>
+  <si>
+    <t>指令的燃油蒸汽排出</t>
+  </si>
+  <si>
+    <t>燃油量输入</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障代码清空后的热车次数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障代码清空后的行驶距离</t>
+  </si>
+  <si>
+    <t>km</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pa</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data*0.25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVAP蒸汽压力</t>
+  </si>
+  <si>
+    <t>O2 Sensor 1, Bank 2 (WR)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 1, Bank 1 (WR)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 2, Bank 1 (WR)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 3, Bank 1 (WR)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 4, Bank 1 (WR)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 2, Bank 2 (WR)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 4, Bank 2 (WR)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 Sensor 3, Bank 2 (WR)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>气压</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>催化剂温度BANK1-传感器1</t>
+  </si>
+  <si>
+    <t>催化剂温度BANK1-传感器2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>催化剂温度BANK2-传感器1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>催化剂温度BANK2-传感器2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID 0x41-0x5F命令支持状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>414000000000</t>
+  </si>
+  <si>
+    <t>控制模块电压</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对载荷值</t>
+  </si>
+  <si>
+    <t>指令的当量比</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>节气门的相对位置</t>
+  </si>
+  <si>
+    <t>环境气温same scaling as $0F</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>节气门绝对位置B</t>
+  </si>
+  <si>
+    <t>节气门绝对位置C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>节气门绝对位置D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>节气门绝对位置E</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>节气门绝对位置F</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外测试模式2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外测试模式1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料型号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃油中酒精含量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对蒸发系统蒸汽压力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸发系统蒸汽压力</t>
+  </si>
+  <si>
+    <t>短期次氧传感器燃油修剪-BANK1 BANK3</t>
+  </si>
+  <si>
+    <t>指令油门控制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hybrid battery pack</t>
+  </si>
+  <si>
+    <t>Engine oil temperature</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fuel injection timing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fuel rate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emission requirements</t>
+  </si>
+  <si>
+    <t>短期次氧传感器燃油修剪-BANK1 BANK4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对然后导轨压力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>马力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总里程</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对燃油导轨压力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data*0.001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data*0.0000305</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(data-40)*9/5 +32</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障码清空后时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTCs亮起后发动机运行分钟数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>`0152</t>
-  </si>
-  <si>
-    <t>`0153</t>
-  </si>
-  <si>
-    <t>`0154</t>
-  </si>
-  <si>
-    <t>`0155</t>
-  </si>
-  <si>
-    <t>`0156</t>
-  </si>
-  <si>
-    <t>`0157</t>
-  </si>
-  <si>
-    <t>`0158</t>
-  </si>
-  <si>
-    <t>`0159</t>
-  </si>
-  <si>
-    <t>`015A</t>
-  </si>
-  <si>
-    <t>`015B</t>
-  </si>
-  <si>
-    <t>`015C</t>
-  </si>
-  <si>
-    <t>`015D</t>
-  </si>
-  <si>
-    <t>`015E</t>
-  </si>
-  <si>
-    <t>`015F</t>
-  </si>
-  <si>
-    <t>命令序号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stn1110系列芯片命令</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>QL_100芯片命令表</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>动力总成的冻结帧数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>`09</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>`91</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>`95</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>`96</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>`97</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT+RDTC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬时油耗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>百公里油耗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml/s</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>km</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m/(s*s)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/100km</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障码读取</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT+EDTC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障码清除,返回状态+故障码再次读取结果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT+MIL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪表故障指示灯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前车辆支持的标准的PID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT+PIDS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT+INFO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT+INFO.VIN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT+INFO.EID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速箱信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT+SPWR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆电瓶电压</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设总里程</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT+PMIL=12345</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(data*0.1-40)*9/5 +32</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8个字符表示32位的序列，表示对应的以后的22条命令的支持状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件重启芯片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消回显</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示回显</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭memory</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATE0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATE1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATL0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATS0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT@1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT@2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATPP OE OFF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST SL OFF,ON</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST SLU OFF,ON</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST SLVL OFF,ON</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST SLVG OFF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATPPS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STPPS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATH0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATAT2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATSP0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATDPN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATH1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化命令无需返回，只需对设置的超时略大就行了</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令执行超时（单位：500ms）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令执行超时</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS数据转换方法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longitude</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cimi</t>
+  </si>
+  <si>
+    <t>移动运营商代号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基站信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海拔高度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>行驶角度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS卫星数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试预留位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件版本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件版本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串按照10进制转换</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cellid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉分隔符，按照16进制转换成整数</t>
+  </si>
+  <si>
+    <t>10进制有符号整数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10进制无符号整数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉小数点按照10进制转换成整数，最高位置一表示西半球</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉小数点按照10进制转换成整数，最高位置一表示南半球</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10位字符串</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>9位字符串</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234.5678</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算后的数据（整数）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>46001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>五位字符串</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCD.1234</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xABCD1234</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串(分割符前为小区信息，后为基站号)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>310</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>310Km/h</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>270</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正北为0度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>时分秒排列，每个占两位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:23:34</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据串CRC校验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据头，上行的按照格式，下行的时候请在数据前面放置4个*，请确保和数据在同一个数据包发过来</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMEI_H</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMEI_L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMEI号高7位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMEI号低8位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息长度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID类型2（预留）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基站号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CELL_ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV_ID_L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV_ID_H</t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>hv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG_LENGTH</t>
+  </si>
+  <si>
+    <t>IMEI15位字符串高7位按10进制转换成整数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMEI15位字符串低8位按10进制转换成整数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉分隔符，按照16进制转换成整数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +1739,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -803,7 +2060,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,8 +2187,11 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,8 +2201,29 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="4" xfId="11" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -976,6 +2257,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1283,43 +2565,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="45.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="42.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="34.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.625" customWidth="1"/>
+    <col min="12" max="12" width="25.75" customWidth="1"/>
+    <col min="15" max="15" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="1"/>
-      <c r="I1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1330,825 +2624,2194 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
+      <c r="F2" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>6</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>8</v>
       </c>
       <c r="B4">
         <v>51</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>10</v>
       </c>
       <c r="B5">
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>106</v>
-      </c>
       <c r="K5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>12</v>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B7">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>14</v>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>15</v>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>16</v>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B11">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>17</v>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B12">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>18</v>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B13">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>19</v>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B14">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>20</v>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="B15">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>21</v>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B16">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>22</v>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="B17">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>23</v>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B18">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>24</v>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B19">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>25</v>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B20">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>26</v>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B21">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>27</v>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B22">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>28</v>
+      <c r="C22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B23">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>29</v>
+      <c r="C23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B24">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>30</v>
+      <c r="C24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B25">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>31</v>
+      <c r="C25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B26">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>32</v>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B27">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>33</v>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B28">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>34</v>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B29">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>35</v>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B30">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>36</v>
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="189" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B31">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>37</v>
+      <c r="C31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B32">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>38</v>
+      <c r="C32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B33">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>39</v>
+      <c r="C33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B34">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>40</v>
+      <c r="C34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B35">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>41</v>
+      <c r="C35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B36">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>42</v>
+      <c r="C36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B37">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>43</v>
+      <c r="C37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B38">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>44</v>
+      <c r="C38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="108" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B39">
         <v>86</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>45</v>
+      <c r="C39" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B40">
         <v>87</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>46</v>
+      <c r="C40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B41">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>47</v>
+      <c r="C41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B42">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>48</v>
+      <c r="C42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" t="s">
+        <v>139</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B43">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>49</v>
+      <c r="C43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" t="s">
+        <v>139</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B44">
         <v>91</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>50</v>
+      <c r="C44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D44" t="s">
+        <v>139</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B45">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>51</v>
+      <c r="C45" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B46">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>52</v>
+      <c r="C46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" t="s">
+        <v>139</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B47">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>53</v>
+      <c r="C47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B48">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>54</v>
+      <c r="C48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B49">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>55</v>
+      <c r="C49" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B50">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>56</v>
+      <c r="C50" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B51">
         <v>98</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>57</v>
+      <c r="C51" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B52">
         <v>99</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>58</v>
+      <c r="C52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B53">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>59</v>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B54">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>60</v>
+      <c r="C54" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="108" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B55">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>61</v>
+      <c r="C55" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="B56">
         <v>103</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>62</v>
+      <c r="C56" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B57">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>63</v>
+      <c r="C57" t="s">
+        <v>245</v>
+      </c>
+      <c r="D57" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" t="s">
+        <v>251</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B58">
         <v>105</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>64</v>
+      <c r="C58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" t="s">
+        <v>251</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B59">
         <v>106</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>65</v>
+      <c r="C59" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" t="s">
+        <v>251</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B60">
         <v>107</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>66</v>
+      <c r="C60" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" t="s">
+        <v>251</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B61">
         <v>108</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>67</v>
+      <c r="C61" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B62">
         <v>109</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>68</v>
+      <c r="C62" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" t="s">
+        <v>251</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B63">
         <v>110</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>69</v>
+      <c r="C63" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B64">
         <v>111</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>70</v>
+      <c r="C64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="B65">
         <v>112</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>71</v>
+      <c r="C65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65"/>
+      <c r="K65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B66">
         <v>113</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>72</v>
+      <c r="C66" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G66"/>
+      <c r="K66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="B67">
         <v>114</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>73</v>
+      <c r="C67" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="K67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B68">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>74</v>
+      <c r="C68"/>
+      <c r="D68" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" s="3"/>
+      <c r="G68"/>
+      <c r="K68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B69">
         <v>116</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>75</v>
+      <c r="C69" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" t="s">
+        <v>287</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G69"/>
+      <c r="K69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B70">
         <v>117</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>76</v>
+      <c r="C70" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70"/>
+      <c r="K70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B71">
         <v>118</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>77</v>
+      <c r="C71" t="s">
+        <v>260</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G71"/>
+      <c r="K71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B72">
         <v>119</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>78</v>
+      <c r="C72" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G72"/>
+      <c r="K72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B73">
         <v>120</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>79</v>
+      <c r="C73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G73"/>
+      <c r="K73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B74">
         <v>121</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>80</v>
+      <c r="C74" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G74"/>
+      <c r="K74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B75">
         <v>122</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>81</v>
+      <c r="C75" t="s">
+        <v>264</v>
+      </c>
+      <c r="D75" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G75"/>
+      <c r="K75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B76">
         <v>123</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>82</v>
+      <c r="C76" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" t="s">
+        <v>139</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G76"/>
+      <c r="K76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B77">
         <v>124</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>83</v>
+      <c r="C77" t="s">
+        <v>266</v>
+      </c>
+      <c r="D77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G77"/>
+      <c r="K77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B78">
         <v>125</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>84</v>
+      <c r="C78" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" t="s">
+        <v>139</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G78"/>
+      <c r="K78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B79">
         <v>126</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>85</v>
+      <c r="C79" t="s">
+        <v>275</v>
+      </c>
+      <c r="D79" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G79"/>
+      <c r="K79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B80">
         <v>127</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>86</v>
+      <c r="C80" t="s">
+        <v>291</v>
+      </c>
+      <c r="D80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" t="s">
+        <v>292</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G80"/>
+      <c r="K80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="B81">
         <v>128</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>87</v>
+      <c r="C81" t="s">
+        <v>290</v>
+      </c>
+      <c r="D81" t="s">
+        <v>139</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A82" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B82">
         <v>129</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>88</v>
+      <c r="C82" t="s">
+        <v>269</v>
+      </c>
+      <c r="D82" t="s">
+        <v>139</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A83" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="B83">
         <v>130</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>89</v>
+      <c r="C83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D83" t="s">
+        <v>139</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B84">
         <v>131</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>90</v>
+      <c r="C84" t="s">
+        <v>270</v>
+      </c>
+      <c r="D84" t="s">
+        <v>139</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="B85">
         <v>132</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>91</v>
+      <c r="C85" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" t="s">
+        <v>139</v>
+      </c>
+      <c r="K85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="B86">
         <v>133</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>92</v>
+      <c r="C86" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86" t="s">
+        <v>139</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B87">
         <v>134</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>93</v>
+      <c r="C87" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" t="s">
+        <v>139</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A88" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="B88">
         <v>135</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>94</v>
+      <c r="C88" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88" t="s">
+        <v>139</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A89" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="B89">
         <v>136</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>95</v>
+      <c r="C89" t="s">
+        <v>274</v>
+      </c>
+      <c r="D89" t="s">
+        <v>139</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A90" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="B90">
         <v>137</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>96</v>
+      <c r="C90" t="s">
+        <v>281</v>
+      </c>
+      <c r="D90" t="s">
+        <v>139</v>
+      </c>
+      <c r="K90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A91" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B91">
         <v>138</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>97</v>
+      <c r="C91" t="s">
+        <v>281</v>
+      </c>
+      <c r="D91" t="s">
+        <v>139</v>
+      </c>
+      <c r="K91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A92" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B92">
         <v>139</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>98</v>
+      <c r="C92" t="s">
+        <v>282</v>
+      </c>
+      <c r="D92" t="s">
+        <v>139</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A93" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="B93">
         <v>140</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>99</v>
+      <c r="C93" t="s">
+        <v>285</v>
+      </c>
+      <c r="D93" t="s">
+        <v>139</v>
+      </c>
+      <c r="K93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="B94">
         <v>141</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>100</v>
+      <c r="C94" t="s">
+        <v>276</v>
+      </c>
+      <c r="D94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A95" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B95">
         <v>142</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>101</v>
+      <c r="C95" t="s">
+        <v>277</v>
+      </c>
+      <c r="D95" t="s">
+        <v>139</v>
+      </c>
+      <c r="K95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="B96">
         <v>143</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>102</v>
+      <c r="C96" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" t="s">
+        <v>139</v>
+      </c>
+      <c r="K96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A97" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="B97">
         <v>144</v>
+      </c>
+      <c r="C97" t="s">
+        <v>279</v>
+      </c>
+      <c r="D97" t="s">
+        <v>139</v>
+      </c>
+      <c r="K97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A98" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>145</v>
+      </c>
+      <c r="C98" t="s">
+        <v>280</v>
+      </c>
+      <c r="D98" t="s">
+        <v>139</v>
+      </c>
+      <c r="K98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A99" s="5"/>
+      <c r="B99">
+        <v>146</v>
+      </c>
+      <c r="K99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A100" s="5"/>
+      <c r="B100">
+        <v>147</v>
+      </c>
+      <c r="K100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A101" s="5"/>
+      <c r="B101">
+        <v>148</v>
+      </c>
+      <c r="K101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="5"/>
+      <c r="B102">
+        <v>149</v>
+      </c>
+      <c r="K102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K103">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2156,4 +4819,3792 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P131"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="45.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="42.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="34.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.625" customWidth="1"/>
+    <col min="12" max="12" width="25.75" customWidth="1"/>
+    <col min="15" max="15" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="189" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="108" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" t="s">
+        <v>139</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" t="s">
+        <v>139</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D44" t="s">
+        <v>139</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" t="s">
+        <v>139</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="108" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>103</v>
+      </c>
+      <c r="C56" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>245</v>
+      </c>
+      <c r="D57" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" t="s">
+        <v>251</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" t="s">
+        <v>251</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>106</v>
+      </c>
+      <c r="C59" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" t="s">
+        <v>251</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" t="s">
+        <v>251</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>109</v>
+      </c>
+      <c r="C62" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" t="s">
+        <v>251</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>110</v>
+      </c>
+      <c r="C63" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65"/>
+      <c r="K65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G66"/>
+      <c r="K66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="K67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>115</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" s="3"/>
+      <c r="G68"/>
+      <c r="K68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>116</v>
+      </c>
+      <c r="C69" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" t="s">
+        <v>287</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G69"/>
+      <c r="K69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70"/>
+      <c r="K70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>118</v>
+      </c>
+      <c r="C71" t="s">
+        <v>260</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G71"/>
+      <c r="K71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>119</v>
+      </c>
+      <c r="C72" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G72"/>
+      <c r="K72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>120</v>
+      </c>
+      <c r="C73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G73"/>
+      <c r="K73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G74"/>
+      <c r="K74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>122</v>
+      </c>
+      <c r="C75" t="s">
+        <v>264</v>
+      </c>
+      <c r="D75" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G75"/>
+      <c r="K75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>123</v>
+      </c>
+      <c r="C76" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" t="s">
+        <v>139</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G76"/>
+      <c r="K76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>124</v>
+      </c>
+      <c r="C77" t="s">
+        <v>266</v>
+      </c>
+      <c r="D77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G77"/>
+      <c r="K77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>125</v>
+      </c>
+      <c r="C78" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" t="s">
+        <v>139</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G78"/>
+      <c r="K78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>126</v>
+      </c>
+      <c r="C79" t="s">
+        <v>275</v>
+      </c>
+      <c r="D79" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G79"/>
+      <c r="K79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>127</v>
+      </c>
+      <c r="C80" t="s">
+        <v>291</v>
+      </c>
+      <c r="D80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" t="s">
+        <v>292</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G80"/>
+      <c r="K80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>128</v>
+      </c>
+      <c r="C81" t="s">
+        <v>290</v>
+      </c>
+      <c r="D81" t="s">
+        <v>139</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A82" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>129</v>
+      </c>
+      <c r="C82" t="s">
+        <v>269</v>
+      </c>
+      <c r="D82" t="s">
+        <v>139</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>130</v>
+      </c>
+      <c r="C83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D83" t="s">
+        <v>139</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>131</v>
+      </c>
+      <c r="C84" t="s">
+        <v>270</v>
+      </c>
+      <c r="D84" t="s">
+        <v>139</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B85">
+        <v>132</v>
+      </c>
+      <c r="C85" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" t="s">
+        <v>139</v>
+      </c>
+      <c r="K85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>133</v>
+      </c>
+      <c r="C86" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86" t="s">
+        <v>139</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>134</v>
+      </c>
+      <c r="C87" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" t="s">
+        <v>139</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A88" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>135</v>
+      </c>
+      <c r="C88" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88" t="s">
+        <v>139</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A89" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>136</v>
+      </c>
+      <c r="C89" t="s">
+        <v>274</v>
+      </c>
+      <c r="D89" t="s">
+        <v>139</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A90" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>137</v>
+      </c>
+      <c r="C90" t="s">
+        <v>281</v>
+      </c>
+      <c r="D90" t="s">
+        <v>139</v>
+      </c>
+      <c r="K90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A91" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>138</v>
+      </c>
+      <c r="C91" t="s">
+        <v>281</v>
+      </c>
+      <c r="D91" t="s">
+        <v>139</v>
+      </c>
+      <c r="K91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A92" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>139</v>
+      </c>
+      <c r="C92" t="s">
+        <v>282</v>
+      </c>
+      <c r="D92" t="s">
+        <v>139</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A93" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>140</v>
+      </c>
+      <c r="C93" t="s">
+        <v>285</v>
+      </c>
+      <c r="D93" t="s">
+        <v>139</v>
+      </c>
+      <c r="K93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>141</v>
+      </c>
+      <c r="C94" t="s">
+        <v>276</v>
+      </c>
+      <c r="D94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A95" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>142</v>
+      </c>
+      <c r="C95" t="s">
+        <v>277</v>
+      </c>
+      <c r="D95" t="s">
+        <v>139</v>
+      </c>
+      <c r="K95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>143</v>
+      </c>
+      <c r="C96" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" t="s">
+        <v>139</v>
+      </c>
+      <c r="K96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A97" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>144</v>
+      </c>
+      <c r="C97" t="s">
+        <v>279</v>
+      </c>
+      <c r="D97" t="s">
+        <v>139</v>
+      </c>
+      <c r="K97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A98" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>145</v>
+      </c>
+      <c r="C98" t="s">
+        <v>280</v>
+      </c>
+      <c r="D98" t="s">
+        <v>139</v>
+      </c>
+      <c r="K98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B99">
+        <v>146</v>
+      </c>
+      <c r="K99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B100">
+        <v>147</v>
+      </c>
+      <c r="K100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B101">
+        <v>148</v>
+      </c>
+      <c r="K101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102">
+        <v>149</v>
+      </c>
+      <c r="K102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B103" s="1">
+        <v>150</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F103" s="6"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B104" s="1">
+        <v>151</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F104" s="6"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B105" s="1">
+        <v>152</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F105" s="6"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B106" s="1">
+        <v>153</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F106" s="6"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B107" s="1">
+        <v>154</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F107" s="6"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="8"/>
+      <c r="B108" s="1">
+        <v>155</v>
+      </c>
+      <c r="F108" s="6"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="8"/>
+      <c r="B109" s="1">
+        <v>156</v>
+      </c>
+      <c r="F109" s="6"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="8"/>
+      <c r="B110" s="1">
+        <v>157</v>
+      </c>
+      <c r="F110" s="6"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B111" s="1">
+        <v>158</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F111" s="6"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B112" s="1">
+        <v>159</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F112" s="6"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B113" s="1">
+        <v>160</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F113" s="6"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B114" s="1">
+        <v>161</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F114" s="6"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B115" s="1">
+        <v>162</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F115" s="6"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B116" s="1">
+        <v>163</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F116" s="6"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B117" s="1">
+        <v>164</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F117" s="6"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B118" s="1">
+        <v>165</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F118" s="6"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B119" s="1">
+        <v>166</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F119" s="6"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B120">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B121">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B122">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B123">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B124">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B125">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B126">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B127">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B128">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B129">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B130">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B131">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>349</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A9" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="59.75" customWidth="1"/>
+    <col min="7" max="7" width="33.5" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1234.56789</v>
+      </c>
+      <c r="I3">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I4">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I5">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G6" t="s">
+        <v>392</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="I7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>381</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>397</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="I10">
+        <v>122334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>375</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" t="s">
+        <v>411</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>